--- a/hello.xlsx
+++ b/hello.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
     <t>Hellolisa</t>
   </si>
@@ -40,27 +40,16 @@
     <t>lisa@C1</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">A</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="宋体"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">2</t>
-    </r>
+    <t>HiA</t>
   </si>
   <si>
     <t>world22!</t>
   </si>
   <si>
-    <t>world44!</t>
+    <t>hiC</t>
+  </si>
+  <si>
+    <t>hiD</t>
   </si>
 </sst>
 </file>
@@ -408,7 +397,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -431,8 +420,11 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
